--- a/Question_Sets/Software skills/Microsoft Windows.xlsx
+++ b/Question_Sets/Software skills/Microsoft Windows.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'How would you make multiple large files suitable for online transfer, without reducing the quality?', 'ques_type': 2, 'options': ['Open the files and remove content that requires large amounts of storage space (e.g. high quality pictures).', 'Put them in a compressed (zip) folder.', 'Upload the files to an online file compressor.', 'Transfer all the files separately.'], 'score': 'Put them in a compressed (zip) folder.'}, {'title': 'What shortcut keys would you use to cut a paragraph from a Word document and paste it in an e-mail?', 'ques_type': 2, 'options': ['CTRL + C and CTRL + V', 'CTRL + S and CTRL + F', 'CTRL + X and CTRL + V', 'CTRL + Q and CTRL + X'], 'score': 'CTRL + X and CTRL + V'}, {'title': 'How can you define a cursor?', 'ques_type': 2, 'options': ['A graphic pointer on the screen that shows the user where the mouse is.', 'A virus on a computer that removes all internal memory.', 'A symbol connected to a file that indicates the type of file (e.g. Word-document, PDF).', 'A hacker that attempts to steal personal files from a computer.'], 'score': 'A graphic pointer on the screen that shows the user where the mouse is.'}, {'title': 'You created an invoice in Microsoft Word. You would like to send the invoice to a customer. However, the customer is not allowed to make any changes to the invoice. How would you make sure the customer cannot make any changes?', 'ques_type': 2, 'options': ['Save the invoice as a PDF file.', 'Save the invoice as a Fixed Text Document.', 'Save the invoice as an RTF file.', 'Save the invoice as a Word Template.'], 'score': 'Save the invoice as a PDF file.'}]</t>
+    <t>questions = [
+    {
+        "title": "How would you make multiple large files suitable for online transfer, without reducing the quality?",
+        "ques_type": 2,
+        "options": [
+            "Open the files and remove content that requires large amounts of storage space (e.g. high quality pictures).",
+            "Put them in a compressed (zip) folder.",
+            "Upload the files to an online file compressor.",
+            "Transfer all the files separately."
+        ],
+        "score": "Put them in a compressed (zip) folder."
+    },
+    {
+        "title": "What shortcut keys would you use to cut a paragraph from a Word document and paste it in an e-mail?",
+        "ques_type": 2,
+        "options": [
+            "CTRL + C and CTRL + V",
+            "CTRL + S and CTRL + F",
+            "CTRL + X and CTRL + V",
+            "CTRL + Q and CTRL + X"
+        ],
+        "score": "CTRL + X and CTRL + V"
+    },
+    {
+        "title": "How can you define a cursor?",
+        "ques_type": 2,
+        "options": [
+            "A graphic pointer on the screen that shows the user where the mouse is.",
+            "A virus on a computer that removes all internal memory.",
+            "A symbol connected to a file that indicates the type of file (e.g. Word-document, PDF).",
+            "A hacker that attempts to steal personal files from a computer."
+        ],
+        "score": "A graphic pointer on the screen that shows the user where the mouse is."
+    },
+    {
+        "title": "You created an invoice in Microsoft Word. You would like to send the invoice to a customer. However, the customer is not allowed to make any changes to the invoice. How would you make sure the customer cannot make any changes?",
+        "ques_type": 2,
+        "options": [
+            "Save the invoice as a PDF file.",
+            "Save the invoice as a Fixed Text Document.",
+            "Save the invoice as an RTF file.",
+            "Save the invoice as a Word Template."
+        ],
+        "score": "Save the invoice as a PDF file."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
